--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B486F66B-0D4D-9348-8D17-6515059D5B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4766CBC-7DD1-2149-AD7D-BE086C4C76DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="5920" windowWidth="23620" windowHeight="16100" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MinSpdDestroyed</t>
-  </si>
-  <si>
-    <t>MinSpdDestroyedDelay</t>
-  </si>
-  <si>
     <t>SpdDecay</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,6 +84,14 @@
   </si>
   <si>
     <t>InitalSpd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinDestroySpd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestroyDelay</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +498,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -506,9 +508,9 @@
     <col min="3" max="3" width="10.7109375" style="2"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="2" customWidth="1"/>
@@ -533,16 +535,16 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -550,7 +552,7 @@
         <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4766CBC-7DD1-2149-AD7D-BE086C4C76DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8F15A-54DD-4F4A-8640-3F70FFA76637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,116 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8F15A-54DD-4F4A-8640-3F70FFA76637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{93C73C33-0480-7946-8328-35FD2B5FD2A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="데이터" sheetId="1" r:id="rId1"/>
-    <sheet name="설명" sheetId="2" r:id="rId2"/>
+    <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 기준 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>World</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드 기준 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsBounce</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ColliderRad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpdDecay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitalSpd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinDestroySpd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestroyDelay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectDmg</t>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공</t>
+  </si>
+  <si>
+    <t>기절한 적1</t>
+  </si>
+  <si>
+    <t>기절한 적2</t>
+  </si>
+  <si>
+    <t>적 공격1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 공격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 공격3</t>
+  </si>
+  <si>
+    <t>적 공격4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -119,6 +105,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -134,13 +127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,34 +152,115 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="6" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="표 스타일 1" pivot="0" count="4">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -196,6 +270,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표17" displayName="표17" ref="A2:G9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:G9"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Index"/>
+    <tableColumn id="2" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" name="isBounce"/>
+    <tableColumn id="4" name="ColliderRad"/>
+    <tableColumn id="8" name="DirectDmg"/>
+    <tableColumn id="10" name="PrefabPath"/>
+    <tableColumn id="11" name="SoundPath"/>
+  </tableColumns>
+  <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -215,7 +305,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -227,7 +317,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -274,23 +364,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -326,23 +399,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,174 +550,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C59786F-E5C0-BF40-97FA-40CC621D88E8}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12">
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="54" customHeight="1"/>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>301</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>401</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>402</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>403</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>200</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
+      <c r="E9">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7059B60-22ED-3141-B749-77EADE951DC4}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="19" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F50922-698F-449B-9F0D-1872A933F3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{499319C9-DDFC-4744-B180-44C27B5DD9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +82,16 @@
     <t>기본공</t>
   </si>
   <si>
-    <t>기절한 적1</t>
-  </si>
-  <si>
-    <t>기절한 적2</t>
+    <t>박쥐</t>
+  </si>
+  <si>
+    <t>해골전사</t>
+  </si>
+  <si>
+    <t>해골궁수</t>
+  </si>
+  <si>
+    <t>해골워리어</t>
   </si>
   <si>
     <t>적 공격1</t>
@@ -93,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -254,7 +272,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{171B5274-E9BC-4A55-84DF-0C5CE80ADD41}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -273,16 +291,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표17" displayName="표17" ref="A2:G9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7C8C896-E678-41FE-A3B2-C9ED5C821E4C}" name="표17" displayName="표17" ref="A2:G11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:G11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Index"/>
-    <tableColumn id="2" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" name="isBounce"/>
-    <tableColumn id="4" name="ColliderRad"/>
-    <tableColumn id="8" name="DirectDmg"/>
-    <tableColumn id="10" name="PrefabPath"/>
-    <tableColumn id="11" name="SoundPath"/>
+    <tableColumn id="1" xr3:uid="{FD710E0B-C038-4BDE-A39F-80ADB39FC26C}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{8D3193E9-FF76-4AAF-A9A8-84CD9739EED4}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{29D5AA45-5617-411A-B0BF-48F94D29F6A3}" name="isBounce"/>
+    <tableColumn id="4" xr3:uid="{DB16002B-65C0-40C4-B98D-38B9F987B603}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{1EC55629-A690-42B5-AA0C-1F7FBE2F38AB}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{62B4A853-F9D6-492B-9869-8554466B0F8A}" name="PrefabPath"/>
+    <tableColumn id="11" xr3:uid="{38B39E72-001A-4377-A13D-A574A3D3E5B8}" name="SoundPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -305,7 +323,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -317,7 +335,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -364,6 +382,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -399,6 +434,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,21 +602,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6203AF44-8421-4737-AECD-D025591E27C7}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
@@ -636,13 +688,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
+      <c r="C4" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -653,13 +705,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -670,16 +722,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -687,7 +739,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -696,15 +748,15 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -713,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>25</v>
@@ -721,7 +773,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -730,9 +782,43 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>402</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>403</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>25</v>
       </c>
     </row>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F50922-698F-449B-9F0D-1872A933F3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1908A81E-4375-4F29-9EC5-D7D0CEE4BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{499319C9-DDFC-4744-B180-44C27B5DD9AA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6538BDA5-FAA0-481C-96C4-A36AC895E9B7}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{171B5274-E9BC-4A55-84DF-0C5CE80ADD41}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{BE301B06-18E7-493F-80E7-A8838F540236}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -291,16 +291,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7C8C896-E678-41FE-A3B2-C9ED5C821E4C}" name="표17" displayName="표17" ref="A2:G11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A7B8196-EF55-4F38-A642-14647EF7B92A}" name="표17" displayName="표17" ref="A2:G11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:G11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FD710E0B-C038-4BDE-A39F-80ADB39FC26C}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{8D3193E9-FF76-4AAF-A9A8-84CD9739EED4}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{29D5AA45-5617-411A-B0BF-48F94D29F6A3}" name="isBounce"/>
-    <tableColumn id="4" xr3:uid="{DB16002B-65C0-40C4-B98D-38B9F987B603}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{1EC55629-A690-42B5-AA0C-1F7FBE2F38AB}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{62B4A853-F9D6-492B-9869-8554466B0F8A}" name="PrefabPath"/>
-    <tableColumn id="11" xr3:uid="{38B39E72-001A-4377-A13D-A574A3D3E5B8}" name="SoundPath"/>
+    <tableColumn id="1" xr3:uid="{2532594D-4187-4C1C-B225-8523068C0AC3}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{F115407F-B7F6-4E5F-A644-37F9AB866135}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4CD97F4D-FCE3-4155-B0B1-B6A564D2D1EE}" name="isBounce"/>
+    <tableColumn id="4" xr3:uid="{0AEB7E8F-0A9E-415F-BAAA-D1210EC46211}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{6CB45016-5D5B-41C3-AD68-9E9613DF5F76}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{F6E3A925-D25A-4C78-A71A-72D20E20600A}" name="PrefabPath"/>
+    <tableColumn id="11" xr3:uid="{944175AB-5616-4948-AEBE-B9F5CAE932A9}" name="SoundPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6203AF44-8421-4737-AECD-D025591E27C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92E84EF-DC76-4A96-A63F-B15BE91F163E}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -616,7 +616,7 @@
   <cols>
     <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1908A81E-4375-4F29-9EC5-D7D0CEE4BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AED37C7-8DE7-40B8-BBD1-BBF13EDEF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6538BDA5-FAA0-481C-96C4-A36AC895E9B7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2EBFA45-06DB-4675-920A-43A2EDE77155}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{BE301B06-18E7-493F-80E7-A8838F540236}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4A065267-C85F-4390-B5DA-9622C052D968}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -291,16 +291,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A7B8196-EF55-4F38-A642-14647EF7B92A}" name="표17" displayName="표17" ref="A2:G11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:G11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA1E5206-25B3-48DB-B647-BB5A7E44AF35}" name="표17" displayName="표17" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B2:H11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2532594D-4187-4C1C-B225-8523068C0AC3}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{F115407F-B7F6-4E5F-A644-37F9AB866135}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{4CD97F4D-FCE3-4155-B0B1-B6A564D2D1EE}" name="isBounce"/>
-    <tableColumn id="4" xr3:uid="{0AEB7E8F-0A9E-415F-BAAA-D1210EC46211}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{6CB45016-5D5B-41C3-AD68-9E9613DF5F76}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{F6E3A925-D25A-4C78-A71A-72D20E20600A}" name="PrefabPath"/>
-    <tableColumn id="11" xr3:uid="{944175AB-5616-4948-AEBE-B9F5CAE932A9}" name="SoundPath"/>
+    <tableColumn id="1" xr3:uid="{18580DFC-EBD6-4C9A-B456-0109732A55B2}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{196A8A12-5E5B-40B4-92AE-0FF28E8B7F42}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A0DEDF9E-C252-4B71-B4B0-AC1F20E59056}" name="isBounce"/>
+    <tableColumn id="4" xr3:uid="{E82A6EDE-BD4A-4628-AD33-D9C5E4504E0F}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{ABF4C289-772F-48FC-9CC9-9D3C89B9E29F}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{D12E79C9-E620-4192-9ECE-79028ECCF816}" name="PrefabPath"/>
+    <tableColumn id="11" xr3:uid="{9A174D87-FA36-44E2-9918-70D76D72A5B2}" name="SoundPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,223 +602,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92E84EF-DC76-4A96-A63F-B15BE91F163E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C0072F-3F90-492D-A8DE-F36601567874}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+    <row r="3" spans="2:8">
+      <c r="B3">
         <v>200</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="4" spans="2:8">
+      <c r="B4">
         <v>500</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="5" spans="2:8">
+      <c r="B5">
         <v>501</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+    <row r="6" spans="2:8">
+      <c r="B6">
         <v>502</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="b">
+      <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="7" spans="2:8">
+      <c r="B7">
         <v>503</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="8" spans="2:8">
+      <c r="B8">
         <v>400</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+    <row r="9" spans="2:8">
+      <c r="B9">
         <v>401</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>12</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+    <row r="10" spans="2:8">
+      <c r="B10">
         <v>402</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+    <row r="11" spans="2:8">
+      <c r="B11">
         <v>403</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>25</v>
       </c>
     </row>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AED37C7-8DE7-40B8-BBD1-BBF13EDEF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{450CA8A5-0202-42AF-B633-71EE29FFE6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2EBFA45-06DB-4675-920A-43A2EDE77155}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BE908-9467-45EA-984D-010836324E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isBounce</t>
+    <t>IsBounce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,7 +85,8 @@
     <t>박쥐</t>
   </si>
   <si>
-    <t>해골전사</t>
+    <t>야구공전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>해골궁수</t>
@@ -272,7 +273,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4A065267-C85F-4390-B5DA-9622C052D968}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F211A6F0-0EDE-4BE9-BE68-ABB277D739FA}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -291,16 +292,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA1E5206-25B3-48DB-B647-BB5A7E44AF35}" name="표17" displayName="표17" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D767C030-C2E5-4696-8D14-8EA36466EF8F}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:H11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{18580DFC-EBD6-4C9A-B456-0109732A55B2}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{196A8A12-5E5B-40B4-92AE-0FF28E8B7F42}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{A0DEDF9E-C252-4B71-B4B0-AC1F20E59056}" name="isBounce"/>
-    <tableColumn id="4" xr3:uid="{E82A6EDE-BD4A-4628-AD33-D9C5E4504E0F}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{ABF4C289-772F-48FC-9CC9-9D3C89B9E29F}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{D12E79C9-E620-4192-9ECE-79028ECCF816}" name="PrefabPath"/>
-    <tableColumn id="11" xr3:uid="{9A174D87-FA36-44E2-9918-70D76D72A5B2}" name="SoundPath"/>
+    <tableColumn id="1" xr3:uid="{BE68E86D-EF1F-4CB3-BDC1-C52DEED31847}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{A06936F6-945B-46CA-A407-E142BED0FF97}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{39CBF651-1215-4EAE-926C-64B060DF5C5B}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{6412274F-4074-4E56-B666-CAA5B0B4731A}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{054D2674-FC29-4236-95BF-7266B601D2CE}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{C8DD3D68-FC04-42A8-B65D-73E9D600AB2E}" name="PrefabPath"/>
+    <tableColumn id="11" xr3:uid="{CE014135-6F3C-4FE1-8D1E-E1EAFFE31534}" name="SoundPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C0072F-3F90-492D-A8DE-F36601567874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80E4EEA-EE59-488C-9547-781E06BB650D}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{450CA8A5-0202-42AF-B633-71EE29FFE6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3027E9-CB09-4B04-A07A-278FC9F78ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BE908-9467-45EA-984D-010836324E7E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{576C577D-734C-4CE1-A3E9-5E45E88A9EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F211A6F0-0EDE-4BE9-BE68-ABB277D739FA}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9168D575-1257-403C-ADF2-EC7E2B48F8FC}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -292,16 +292,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D767C030-C2E5-4696-8D14-8EA36466EF8F}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9C2ADC4-6C6D-4ED0-91AF-5AEDA5375E15}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:H11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BE68E86D-EF1F-4CB3-BDC1-C52DEED31847}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{A06936F6-945B-46CA-A407-E142BED0FF97}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{39CBF651-1215-4EAE-926C-64B060DF5C5B}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{6412274F-4074-4E56-B666-CAA5B0B4731A}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{054D2674-FC29-4236-95BF-7266B601D2CE}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{C8DD3D68-FC04-42A8-B65D-73E9D600AB2E}" name="PrefabPath"/>
-    <tableColumn id="11" xr3:uid="{CE014135-6F3C-4FE1-8D1E-E1EAFFE31534}" name="SoundPath"/>
+    <tableColumn id="1" xr3:uid="{C57E9A75-5798-4B25-A4E8-F8841DF6CEAF}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{0B9A3E42-DC4B-466B-AA7F-F8A552A58610}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{DE2A86CF-7ADA-4B0C-AA30-6E6002ABE03C}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{D7F1CDED-A2C7-4958-8F7F-0B129304B891}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{37436BF7-87FE-4E90-B0E7-90B5EB256435}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{0BF611BA-9A4B-49B4-99FA-7FB6D63EEE39}" name="PrefabPath"/>
+    <tableColumn id="11" xr3:uid="{33953B00-3FD8-4CFA-B0C7-58196913CA4A}" name="SoundPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80E4EEA-EE59-488C-9547-781E06BB650D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC191261-B2CC-4D89-93E8-65B76BDA68BD}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3027E9-CB09-4B04-A07A-278FC9F78ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3422678A-447E-46BA-BD18-893C0C7E2059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{576C577D-734C-4CE1-A3E9-5E45E88A9EA4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24BDF463-6174-4F2E-B319-55B62E2F2A76}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9168D575-1257-403C-ADF2-EC7E2B48F8FC}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7FE62B57-4E0C-4B1D-9CD7-DE320230B115}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -292,16 +292,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9C2ADC4-6C6D-4ED0-91AF-5AEDA5375E15}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4950E7B-5284-4D41-8A72-82ED5A3104CC}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:H11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C57E9A75-5798-4B25-A4E8-F8841DF6CEAF}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{0B9A3E42-DC4B-466B-AA7F-F8A552A58610}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{DE2A86CF-7ADA-4B0C-AA30-6E6002ABE03C}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{D7F1CDED-A2C7-4958-8F7F-0B129304B891}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{37436BF7-87FE-4E90-B0E7-90B5EB256435}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{0BF611BA-9A4B-49B4-99FA-7FB6D63EEE39}" name="PrefabPath"/>
-    <tableColumn id="11" xr3:uid="{33953B00-3FD8-4CFA-B0C7-58196913CA4A}" name="SoundPath"/>
+    <tableColumn id="1" xr3:uid="{D12A7C9C-A826-45B1-A34E-D51C94ADF13B}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{67C14464-60ED-4823-AFD1-C3E768AE6768}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1A0A20DA-20C0-4DBC-9879-329B1198591E}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{7FA8161C-E347-4A7A-B86E-D545258F4134}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{DB5B5E5F-FEB9-4093-AEE0-760567E3886A}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{6F1EEFED-CE77-4EE9-A6D6-3C215AB55AC0}" name="PrefabPath"/>
+    <tableColumn id="11" xr3:uid="{C83961B6-2D47-4432-8F96-75C6D85E7AB8}" name="SoundPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC191261-B2CC-4D89-93E8-65B76BDA68BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF0C69-E850-4794-9E8A-3727A64CAFC5}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3422678A-447E-46BA-BD18-893C0C7E2059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947269F0-0AF3-C043-98CA-6D8A367D2AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24BDF463-6174-4F2E-B319-55B62E2F2A76}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{24BDF463-6174-4F2E-B319-55B62E2F2A76}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,17 @@
   </si>
   <si>
     <t>적 공격4</t>
+  </si>
+  <si>
+    <t>Prefabs/Projectile.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/Projectile.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/PlayerProjectile.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -610,18 +621,18 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -686,6 +697,9 @@
       <c r="F3">
         <v>25</v>
       </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4">
@@ -703,6 +717,9 @@
       <c r="F4">
         <v>25</v>
       </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5">
@@ -720,6 +737,9 @@
       <c r="F5">
         <v>25</v>
       </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6">
@@ -737,6 +757,9 @@
       <c r="F6">
         <v>25</v>
       </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7">
@@ -754,6 +777,9 @@
       <c r="F7">
         <v>25</v>
       </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8">
@@ -771,6 +797,9 @@
       <c r="F8">
         <v>25</v>
       </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9">
@@ -788,6 +817,9 @@
       <c r="F9">
         <v>50</v>
       </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10">
@@ -805,6 +837,9 @@
       <c r="F10">
         <v>25</v>
       </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11">
@@ -821,6 +856,9 @@
       </c>
       <c r="F11">
         <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3422678A-447E-46BA-BD18-893C0C7E2059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA20740F-F2EB-498F-BFFB-84CD77E1A36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24BDF463-6174-4F2E-B319-55B62E2F2A76}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2BB93D-199B-4B84-BF36-90E04F58C66B}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7FE62B57-4E0C-4B1D-9CD7-DE320230B115}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3DAD2DB4-0E0F-4E2C-96FF-6922CA77C975}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -292,16 +292,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4950E7B-5284-4D41-8A72-82ED5A3104CC}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4C1C05E-922E-4727-AEBA-0D2E083467D6}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:H11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D12A7C9C-A826-45B1-A34E-D51C94ADF13B}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{67C14464-60ED-4823-AFD1-C3E768AE6768}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{1A0A20DA-20C0-4DBC-9879-329B1198591E}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{7FA8161C-E347-4A7A-B86E-D545258F4134}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{DB5B5E5F-FEB9-4093-AEE0-760567E3886A}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{6F1EEFED-CE77-4EE9-A6D6-3C215AB55AC0}" name="PrefabPath"/>
-    <tableColumn id="11" xr3:uid="{C83961B6-2D47-4432-8F96-75C6D85E7AB8}" name="SoundPath"/>
+    <tableColumn id="1" xr3:uid="{52BCF6E9-C544-4886-91A6-6BCDF4864904}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{7DC9C94E-5731-4929-9828-562E4454B083}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{BA268D0D-2778-4F24-BB23-9125C584266E}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{84ED4F1F-A3ED-4A34-A743-0E10003A359B}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{ECE30C4F-A3E3-4437-AF58-2F291548E336}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{CBAF26CC-6BD0-4822-9D04-5CA749FBACAD}" name="PrefabPath"/>
+    <tableColumn id="11" xr3:uid="{7EA42389-E28B-4514-A30E-7E2A832AE560}" name="SoundPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF0C69-E850-4794-9E8A-3727A64CAFC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B95D8E-9D61-43CD-BB20-020C7E037B04}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA20740F-F2EB-498F-BFFB-84CD77E1A36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72824CDF-7451-4E2D-BCB9-E1A1B9D01B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2BB93D-199B-4B84-BF36-90E04F58C66B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0B43B45-1307-4B5F-8196-D3F070F4FA52}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,12 +87,6 @@
   <si>
     <t>야구공전사</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해골궁수</t>
-  </si>
-  <si>
-    <t>해골워리어</t>
   </si>
   <si>
     <t>적 공격1</t>
@@ -273,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3DAD2DB4-0E0F-4E2C-96FF-6922CA77C975}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C3A9AFDD-CA9A-42D0-AE31-869A5CCAE5B9}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -292,16 +286,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4C1C05E-922E-4727-AEBA-0D2E083467D6}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B2:H11" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC1FC016-5763-45D1-9339-932FE5458AF8}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B2:H9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{52BCF6E9-C544-4886-91A6-6BCDF4864904}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{7DC9C94E-5731-4929-9828-562E4454B083}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{BA268D0D-2778-4F24-BB23-9125C584266E}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{84ED4F1F-A3ED-4A34-A743-0E10003A359B}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{ECE30C4F-A3E3-4437-AF58-2F291548E336}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{CBAF26CC-6BD0-4822-9D04-5CA749FBACAD}" name="PrefabPath"/>
-    <tableColumn id="11" xr3:uid="{7EA42389-E28B-4514-A30E-7E2A832AE560}" name="SoundPath"/>
+    <tableColumn id="1" xr3:uid="{C59D61F3-334A-413A-96B3-C9DDCF301477}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{792D19F0-BF0B-4764-A47E-03D4C6C98CB7}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{81D0D62D-C1B1-4C1C-9484-39373168FAAF}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{D8A1B9AA-25B4-4094-9FA2-EA56BEBA0807}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{26D246DD-9BC2-4D36-89DC-D9D3E48E9CD5}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{BE05B7E5-5B57-494D-9AFB-DD920CF1736B}" name="PrefabPath"/>
+    <tableColumn id="11" xr3:uid="{A02BDAB6-BEC9-40D0-B67E-31B2C196696F}" name="SoundPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B95D8E-9D61-43CD-BB20-020C7E037B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EE5268-2698-4D97-8049-FB982B57474F}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -681,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -698,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -715,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -723,16 +717,16 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6">
-        <v>502</v>
+        <v>400</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -740,7 +734,7 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7">
-        <v>503</v>
+        <v>401</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -749,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
         <v>25</v>
@@ -757,7 +751,7 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -766,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -774,7 +768,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -783,43 +777,9 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10">
-        <v>402</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11">
-        <v>403</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
         <v>25</v>
       </c>
     </row>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72824CDF-7451-4E2D-BCB9-E1A1B9D01B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB645ABD-C7F5-45C9-81ED-364B86C2AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0B43B45-1307-4B5F-8196-D3F070F4FA52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E23F9E1D-14C6-4781-8342-A11202201D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>PrefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoundPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -267,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{C3A9AFDD-CA9A-42D0-AE31-869A5CCAE5B9}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EA7DFA3F-3165-4C6F-BC03-45771A94AAF6}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,16 +282,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC1FC016-5763-45D1-9339-932FE5458AF8}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:H9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B2:H9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C59D61F3-334A-413A-96B3-C9DDCF301477}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{792D19F0-BF0B-4764-A47E-03D4C6C98CB7}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{81D0D62D-C1B1-4C1C-9484-39373168FAAF}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{D8A1B9AA-25B4-4094-9FA2-EA56BEBA0807}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{26D246DD-9BC2-4D36-89DC-D9D3E48E9CD5}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{BE05B7E5-5B57-494D-9AFB-DD920CF1736B}" name="PrefabPath"/>
-    <tableColumn id="11" xr3:uid="{A02BDAB6-BEC9-40D0-B67E-31B2C196696F}" name="SoundPath"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67AE7BD1-F118-45CD-AA1D-87C8868F9E49}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9338C53F-D9D1-49F7-BEE0-8B7456C049E2}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{68ACE5E2-9F69-416B-8620-867802FA1002}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D97868C4-06F0-4474-8FD6-C8129EC35CA4}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{087A4C86-CC68-401D-A87D-8E218657B67D}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{C258D025-14B2-43AB-9F9B-A052C5A3690A}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{5D65E6F8-99B2-4459-9A3E-65B9E20BA9E5}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EE5268-2698-4D97-8049-FB982B57474F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30837AC6-6691-4ACA-A7FD-1243F2BFF29D}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:H9"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -615,10 +610,9 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -637,11 +631,8 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8">
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -660,16 +651,13 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -681,12 +669,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:7">
       <c r="B4">
         <v>500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
@@ -698,12 +686,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>501</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -715,12 +703,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -732,12 +720,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>401</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
@@ -749,12 +737,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>402</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -766,12 +754,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>403</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB645ABD-C7F5-45C9-81ED-364B86C2AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A42275-B18B-FF48-8664-5BFAD3FC21F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E23F9E1D-14C6-4781-8342-A11202201D0E}"/>
+    <workbookView xWindow="-29920" yWindow="2220" windowWidth="29040" windowHeight="15840" xr2:uid="{E23F9E1D-14C6-4781-8342-A11202201D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,13 @@
   </si>
   <si>
     <t>적 공격4</t>
+  </si>
+  <si>
+    <t>Prefabs/Projectile.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/Projectile.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -599,17 +606,17 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -668,6 +675,9 @@
       <c r="F3">
         <v>25</v>
       </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4">
@@ -685,6 +695,9 @@
       <c r="F4">
         <v>25</v>
       </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5">
@@ -702,6 +715,9 @@
       <c r="F5">
         <v>25</v>
       </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6">
@@ -719,6 +735,9 @@
       <c r="F6">
         <v>25</v>
       </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7">
@@ -736,6 +755,9 @@
       <c r="F7">
         <v>25</v>
       </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
@@ -753,6 +775,9 @@
       <c r="F8">
         <v>25</v>
       </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
@@ -769,6 +794,9 @@
       </c>
       <c r="F9">
         <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A42275-B18B-FF48-8664-5BFAD3FC21F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CAB6E4F-5679-447D-B31F-52D8995E786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29920" yWindow="2220" windowWidth="29040" windowHeight="15840" xr2:uid="{E23F9E1D-14C6-4781-8342-A11202201D0E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{863E196F-2612-4CBB-801F-21E995D1BA03}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
     <t>기본공</t>
   </si>
   <si>
+    <t>Prefabs/Projectile.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>박쥐</t>
   </si>
   <si>
@@ -97,13 +101,6 @@
   </si>
   <si>
     <t>적 공격4</t>
-  </si>
-  <si>
-    <t>Prefabs/Projectile.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/Projectile.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -270,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EA7DFA3F-3165-4C6F-BC03-45771A94AAF6}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{709DB9CE-FB77-4170-90B2-C5DFF0196EEB}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -289,15 +286,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67AE7BD1-F118-45CD-AA1D-87C8868F9E49}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3086A9EF-5D95-4F50-B0CB-0F8E27B4BBEE}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9338C53F-D9D1-49F7-BEE0-8B7456C049E2}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{68ACE5E2-9F69-416B-8620-867802FA1002}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D97868C4-06F0-4474-8FD6-C8129EC35CA4}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{087A4C86-CC68-401D-A87D-8E218657B67D}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{C258D025-14B2-43AB-9F9B-A052C5A3690A}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{5D65E6F8-99B2-4459-9A3E-65B9E20BA9E5}" name="PrefabPath"/>
+    <tableColumn id="1" xr3:uid="{A3ACB609-1CF6-4B8E-BC3D-763E8C41C072}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{E0C19CD4-D8ED-4235-A74E-9567E5185B79}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4B68DC87-9A15-4F94-B33A-464585148002}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{A5CBD97B-C3B9-4C2A-83D5-7F844D189715}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{69C5C34A-2701-4209-AE1E-9C5D1F4623C1}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{6982348C-56D4-4134-8CD2-ABEFDB9D4E3B}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,24 +596,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30837AC6-6691-4ACA-A7FD-1243F2BFF29D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9FE8F6-876A-473C-82E6-B8F0090B51C3}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -676,7 +673,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -684,7 +681,7 @@
         <v>500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
@@ -696,7 +693,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -704,7 +701,7 @@
         <v>501</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -716,7 +713,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -724,7 +721,7 @@
         <v>400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -736,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -744,7 +741,7 @@
         <v>401</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
@@ -756,7 +753,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -764,7 +761,7 @@
         <v>402</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -776,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -784,7 +781,7 @@
         <v>403</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
@@ -796,7 +793,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CAB6E4F-5679-447D-B31F-52D8995E786E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{259C79EB-0948-4FC2-B721-A39835310C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{863E196F-2612-4CBB-801F-21E995D1BA03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB58BBC6-0602-4F68-AE58-6E3E3849070E}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{709DB9CE-FB77-4170-90B2-C5DFF0196EEB}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FC0D39ED-212E-4A34-8799-DE35FAFFB130}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,15 +286,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3086A9EF-5D95-4F50-B0CB-0F8E27B4BBEE}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{557361B0-3C19-4529-AC0E-D3ED379F6F5D}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A3ACB609-1CF6-4B8E-BC3D-763E8C41C072}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{E0C19CD4-D8ED-4235-A74E-9567E5185B79}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{4B68DC87-9A15-4F94-B33A-464585148002}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{A5CBD97B-C3B9-4C2A-83D5-7F844D189715}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{69C5C34A-2701-4209-AE1E-9C5D1F4623C1}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{6982348C-56D4-4134-8CD2-ABEFDB9D4E3B}" name="PrefabPath"/>
+    <tableColumn id="1" xr3:uid="{51DFA8C6-BF71-4186-B86F-5A69FC1BEEE5}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{6DC914F2-124F-43A1-8E88-017876322FD4}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B00E495B-8F48-4BF3-A2B4-EA0C0B087030}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{C773F677-B76D-4F71-AFAE-B33783AE0AE3}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{47C8B8C8-14D0-404E-9416-B1963D189FD1}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{D2B031C7-5150-4CB2-A5CF-BEA6D609ECD3}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -596,7 +596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9FE8F6-876A-473C-82E6-B8F0090B51C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D30033-6386-4497-BFA5-26601DA638E3}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{259C79EB-0948-4FC2-B721-A39835310C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3900E2-8F78-4F41-8B64-AC74BCC4A08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB58BBC6-0602-4F68-AE58-6E3E3849070E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAC1853-0E62-4BC9-A3AB-49202FD35ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FC0D39ED-212E-4A34-8799-DE35FAFFB130}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{49A63E20-37A6-4D8B-98FD-48AD3096C0BA}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,15 +286,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{557361B0-3C19-4529-AC0E-D3ED379F6F5D}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D07ED4C5-F724-487C-A145-75912350DC2D}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{51DFA8C6-BF71-4186-B86F-5A69FC1BEEE5}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{6DC914F2-124F-43A1-8E88-017876322FD4}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{B00E495B-8F48-4BF3-A2B4-EA0C0B087030}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{C773F677-B76D-4F71-AFAE-B33783AE0AE3}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{47C8B8C8-14D0-404E-9416-B1963D189FD1}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{D2B031C7-5150-4CB2-A5CF-BEA6D609ECD3}" name="PrefabPath"/>
+    <tableColumn id="1" xr3:uid="{73C8E60F-B8A3-4AD6-B3D4-71FC8039F6C2}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{A80ECF48-46B4-48E4-8944-CFBD4CA9066A}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C72A2142-592B-45AA-9C85-701974A54339}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{5EAD7762-3934-4113-8BB3-6B94C67DC41B}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{7366D74F-A68F-463C-A72B-8C4A0375377F}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{C191B27A-C415-4BC7-B1D9-BB8EA1073404}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -596,14 +596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D30033-6386-4497-BFA5-26601DA638E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FCBEE5-1F14-4ED4-BC51-E0C110E4C507}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F7">
         <v>25</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F8">
         <v>25</v>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3900E2-8F78-4F41-8B64-AC74BCC4A08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB70418D-24A7-3143-9B70-77273EAAB37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAC1853-0E62-4BC9-A3AB-49202FD35ED2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAC1853-0E62-4BC9-A3AB-49202FD35ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <t>기본공</t>
   </si>
   <si>
-    <t>Prefabs/Projectile.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박쥐</t>
   </si>
   <si>
@@ -101,6 +97,14 @@
   </si>
   <si>
     <t>적 공격4</t>
+  </si>
+  <si>
+    <t>Prefabs/PlayerProjectile.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/EnemyProjectile.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -185,17 +189,17 @@
   <dxfs count="6">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -286,11 +290,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D07ED4C5-F724-487C-A145-75912350DC2D}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D07ED4C5-F724-487C-A145-75912350DC2D}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{73C8E60F-B8A3-4AD6-B3D4-71FC8039F6C2}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{A80ECF48-46B4-48E4-8944-CFBD4CA9066A}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A80ECF48-46B4-48E4-8944-CFBD4CA9066A}" name="#설명" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{C72A2142-592B-45AA-9C85-701974A54339}" name="IsBounce"/>
     <tableColumn id="4" xr3:uid="{5EAD7762-3934-4113-8BB3-6B94C67DC41B}" name="ColliderRad"/>
     <tableColumn id="8" xr3:uid="{7366D74F-A68F-463C-A72B-8C4A0375377F}" name="DirectDmg"/>
@@ -603,17 +607,17 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -673,7 +677,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -681,7 +685,7 @@
         <v>500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
@@ -693,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -701,7 +705,7 @@
         <v>501</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -713,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -721,7 +725,7 @@
         <v>400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -733,7 +737,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -741,7 +745,7 @@
         <v>401</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
@@ -753,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -761,7 +765,7 @@
         <v>402</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -773,7 +777,7 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -781,7 +785,7 @@
         <v>403</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
@@ -793,7 +797,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB70418D-24A7-3143-9B70-77273EAAB37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CD452B-2FA5-794F-A7C2-376B4E21FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAC1853-0E62-4BC9-A3AB-49202FD35ED2}"/>
   </bookViews>
@@ -189,17 +189,17 @@
   <dxfs count="6">
     <dxf>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -290,11 +290,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D07ED4C5-F724-487C-A145-75912350DC2D}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D07ED4C5-F724-487C-A145-75912350DC2D}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{73C8E60F-B8A3-4AD6-B3D4-71FC8039F6C2}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{A80ECF48-46B4-48E4-8944-CFBD4CA9066A}" name="#설명" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A80ECF48-46B4-48E4-8944-CFBD4CA9066A}" name="#설명" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{C72A2142-592B-45AA-9C85-701974A54339}" name="IsBounce"/>
     <tableColumn id="4" xr3:uid="{5EAD7762-3934-4113-8BB3-6B94C67DC41B}" name="ColliderRad"/>
     <tableColumn id="8" xr3:uid="{7366D74F-A68F-463C-A72B-8C4A0375377F}" name="DirectDmg"/>
@@ -607,7 +607,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CD452B-2FA5-794F-A7C2-376B4E21FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7445D1-7B9B-47E2-93A6-D3BFEE1B0BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAC1853-0E62-4BC9-A3AB-49202FD35ED2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B36EA03-5833-4C56-8B63-9BD6C3426E70}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,9 +82,17 @@
     <t>기본공</t>
   </si>
   <si>
+    <t>Prefabs/PlayerProjectile.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>박쥐</t>
   </si>
   <si>
+    <t>Prefabs/EnemyProjectile.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>야구공전사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,14 +109,6 @@
   </si>
   <si>
     <t>적 공격4</t>
-  </si>
-  <si>
-    <t>Prefabs/PlayerProjectile.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/EnemyProjectile.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -271,7 +275,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{49A63E20-37A6-4D8B-98FD-48AD3096C0BA}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D916833B-F4A6-4CDD-8588-A839B05E8AF9}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -290,15 +294,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D07ED4C5-F724-487C-A145-75912350DC2D}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18E9377B-B555-40A1-A7E9-215A096698A7}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73C8E60F-B8A3-4AD6-B3D4-71FC8039F6C2}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{A80ECF48-46B4-48E4-8944-CFBD4CA9066A}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C72A2142-592B-45AA-9C85-701974A54339}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{5EAD7762-3934-4113-8BB3-6B94C67DC41B}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{7366D74F-A68F-463C-A72B-8C4A0375377F}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{C191B27A-C415-4BC7-B1D9-BB8EA1073404}" name="PrefabPath"/>
+    <tableColumn id="1" xr3:uid="{9C269557-D35B-493A-9C6D-9C3E9FAD1F83}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{F3DD3F92-3654-4A18-A3F3-B5B536239BA0}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{03C533E6-BD4F-46A9-9876-0F8C1E046677}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{7B29A97D-EDEA-4016-B791-8C85C96306F6}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{91D44039-B0B7-4D2D-866C-8CAC8F77523E}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{11C647C1-ACD7-41F5-A4FF-66D89C08261A}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -600,24 +604,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FCBEE5-1F14-4ED4-BC51-E0C110E4C507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99BC9D-9652-41D9-9943-51BC4CBA5FDE}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -631,33 +635,33 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -665,7 +669,7 @@
         <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -677,7 +681,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -685,7 +689,7 @@
         <v>500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>0</v>
@@ -697,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -705,7 +709,7 @@
         <v>501</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -717,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -725,19 +729,19 @@
         <v>400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -745,19 +749,19 @@
         <v>401</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -765,19 +769,19 @@
         <v>402</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F8">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -785,19 +789,19 @@
         <v>403</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7445D1-7B9B-47E2-93A6-D3BFEE1B0BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0291AF6-3E2D-4081-8140-BC4D3BA01E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B36EA03-5833-4C56-8B63-9BD6C3426E70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8C2A00F-7F32-41A7-82F1-ECF75958966C}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D916833B-F4A6-4CDD-8588-A839B05E8AF9}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8E62C157-40B2-416A-BE8D-CC5A632E6B36}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -294,15 +294,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18E9377B-B555-40A1-A7E9-215A096698A7}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A000C3B9-3CDE-490F-BEDD-575E8A896594}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9C269557-D35B-493A-9C6D-9C3E9FAD1F83}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{F3DD3F92-3654-4A18-A3F3-B5B536239BA0}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{03C533E6-BD4F-46A9-9876-0F8C1E046677}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{7B29A97D-EDEA-4016-B791-8C85C96306F6}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{91D44039-B0B7-4D2D-866C-8CAC8F77523E}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{11C647C1-ACD7-41F5-A4FF-66D89C08261A}" name="PrefabPath"/>
+    <tableColumn id="1" xr3:uid="{AA097709-267C-4732-865E-2C8497D9B5E4}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{A2BB26E3-DA73-42BD-8E99-DEA72C85A4A3}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{90752697-BBD6-4E24-98AC-F0471CCECEB4}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{4108C4E7-612D-4CBA-AC3D-85DD194A7EDD}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{5E215E88-F150-4F18-9B25-3B97780D8CCC}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{B90EA745-72F8-4FF0-8771-D82A76F2DBE0}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,14 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99BC9D-9652-41D9-9943-51BC4CBA5FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95FFE62-C65D-4DFD-B370-D6C216042519}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0291AF6-3E2D-4081-8140-BC4D3BA01E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B51411F-B5BD-48BA-B4CF-AE9116C95D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8C2A00F-7F32-41A7-82F1-ECF75958966C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5B9F1B0-C65B-4ED6-AE81-18706152FD57}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 공격3</t>
+    <t>적 공격3 튕김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적 공격4</t>
@@ -275,7 +276,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8E62C157-40B2-416A-BE8D-CC5A632E6B36}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{18C5B557-A252-4ACD-939F-1A89121FA8E2}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -294,15 +295,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A000C3B9-3CDE-490F-BEDD-575E8A896594}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0136DE74-0D0D-48A0-B6C3-116A7333D308}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AA097709-267C-4732-865E-2C8497D9B5E4}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{A2BB26E3-DA73-42BD-8E99-DEA72C85A4A3}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{90752697-BBD6-4E24-98AC-F0471CCECEB4}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{4108C4E7-612D-4CBA-AC3D-85DD194A7EDD}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{5E215E88-F150-4F18-9B25-3B97780D8CCC}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{B90EA745-72F8-4FF0-8771-D82A76F2DBE0}" name="PrefabPath"/>
+    <tableColumn id="1" xr3:uid="{C77C9514-CDA6-47B4-A6D8-BD56B6ACF511}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{994E0460-638A-45A6-B6F1-3AA9C53CBB24}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E6DAE612-CB71-4E24-BACC-C20FC3178FAC}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{03282192-6DCF-433F-AA20-D1B3C2441602}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{3DD91649-FAF7-48D9-B1F0-FA6AB48B57A1}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{2DED96CB-048F-40BB-9259-C0379AB1C3FB}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95FFE62-C65D-4DFD-B370-D6C216042519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660641A-154D-4163-8F17-5B43269158B7}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -772,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0.4</v>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B51411F-B5BD-48BA-B4CF-AE9116C95D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D52A4E04-2C02-48A6-AE8F-8051EE54B462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5B9F1B0-C65B-4ED6-AE81-18706152FD57}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{525C0F1F-88EB-4487-9190-45F445199A11}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -101,15 +101,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>적 공격1 튕김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>적 공격2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 공격3 튕김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 공격4</t>
+    <t>적 공격2 튕김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,7 +277,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{18C5B557-A252-4ACD-939F-1A89121FA8E2}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8D10F2EA-22A3-4810-A7CB-CA2F1AA19A05}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -295,15 +296,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0136DE74-0D0D-48A0-B6C3-116A7333D308}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3E928AF-F102-4260-9E00-21F89663F75B}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C77C9514-CDA6-47B4-A6D8-BD56B6ACF511}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{994E0460-638A-45A6-B6F1-3AA9C53CBB24}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{E6DAE612-CB71-4E24-BACC-C20FC3178FAC}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{03282192-6DCF-433F-AA20-D1B3C2441602}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{3DD91649-FAF7-48D9-B1F0-FA6AB48B57A1}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{2DED96CB-048F-40BB-9259-C0379AB1C3FB}" name="PrefabPath"/>
+    <tableColumn id="1" xr3:uid="{ACE5D2E3-A374-480E-BCAF-384836AAEA0C}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{C29D9936-9A44-49CE-9D86-A08C10C0A76F}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8243798A-9E21-4402-8393-BBB00BB203C8}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{10910A4E-0C8C-40D2-BC6A-97656B5804A6}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{A6594521-F2FD-47C8-90D5-FCA4A897EB6F}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{332F3794-E1CB-4AA5-ABAE-7593AE87B8D1}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,14 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660641A-154D-4163-8F17-5B43269158B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E704ED17-3222-4FDD-8EFB-F7EAC7415AE9}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -753,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0.25</v>
@@ -773,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0.4</v>
@@ -793,10 +794,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F9">
         <v>25</v>

--- a/_GameData/ProjectileGameData.xlsx
+++ b/_GameData/ProjectileGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D52A4E04-2C02-48A6-AE8F-8051EE54B462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53417065-CCF7-4C56-AC8E-F173AED3E251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{525C0F1F-88EB-4487-9190-45F445199A11}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC7CE184-FA90-4F2E-A49B-C0580579C15A}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectileGameData" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8D10F2EA-22A3-4810-A7CB-CA2F1AA19A05}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{650F19CB-3306-4C8D-A41E-9953B29F8AB2}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -296,15 +296,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3E928AF-F102-4260-9E00-21F89663F75B}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{208EEE8A-91F3-46F8-8B54-A195072BD30F}" name="ProjectileTable" displayName="ProjectileTable" ref="B2:G9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:G9" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ACE5D2E3-A374-480E-BCAF-384836AAEA0C}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{C29D9936-9A44-49CE-9D86-A08C10C0A76F}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8243798A-9E21-4402-8393-BBB00BB203C8}" name="IsBounce"/>
-    <tableColumn id="4" xr3:uid="{10910A4E-0C8C-40D2-BC6A-97656B5804A6}" name="ColliderRad"/>
-    <tableColumn id="8" xr3:uid="{A6594521-F2FD-47C8-90D5-FCA4A897EB6F}" name="DirectDmg"/>
-    <tableColumn id="10" xr3:uid="{332F3794-E1CB-4AA5-ABAE-7593AE87B8D1}" name="PrefabPath"/>
+    <tableColumn id="1" xr3:uid="{16E56D5A-A892-4E55-A482-5555CFA0A1DC}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{DA4E9F90-D4E1-41EA-B6E1-1E84E7450BD9}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{6D8FF09C-1B8B-4757-B6E3-557BDF640466}" name="IsBounce"/>
+    <tableColumn id="4" xr3:uid="{C87CA851-4EEE-48ED-9C44-E4C7CAFC30CB}" name="ColliderRad"/>
+    <tableColumn id="8" xr3:uid="{7FB22BB1-9B3F-4D69-8C85-108BE5DC5AFF}" name="DirectDmg"/>
+    <tableColumn id="10" xr3:uid="{5CD31E2A-CD2D-4D3C-9B10-C67A5A6EC814}" name="PrefabPath"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E704ED17-3222-4FDD-8EFB-F7EAC7415AE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD035A1-EC1F-4C79-8CB7-6ABC2AF06D71}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
